--- a/figmaToAccess.xlsx
+++ b/figmaToAccess.xlsx
@@ -1,39 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\OneDrive - Hong Kong Community College (HKCC)\Sem two\Database2240\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF59D54-2D82-4A46-BC4B-48F65DEABDFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{1AF59D54-2D82-4A46-BC4B-48F65DEABDFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5535B42E-835F-45FC-B0B7-D03F5216B733}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1802CCCE-0C20-43F6-B717-448D714F6B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>FigmaX</t>
+  </si>
+  <si>
+    <t>FigmaY</t>
+  </si>
   <si>
     <t>FieldHeight</t>
   </si>
   <si>
-    <t>FigmaY</t>
-  </si>
-  <si>
-    <t>FigmaX</t>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Figma</t>
   </si>
   <si>
     <t>X</t>
@@ -42,34 +60,37 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
+    <t>Access</t>
+  </si>
+  <si>
     <t>Text1 Top</t>
   </si>
   <si>
     <t>Text2 Top</t>
   </si>
   <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Figma</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>11.587cm</t>
+  </si>
+  <si>
+    <t>0.661cm</t>
+  </si>
+  <si>
+    <t>6.878cm</t>
+  </si>
+  <si>
+    <t>15.503cm</t>
   </si>
 </sst>
 </file>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AA3C1-D51B-4DB3-9AAF-60414DD4B619}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +487,7 @@
     <row r="1" spans="1:8" hidden="1"/>
     <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>721</v>
@@ -482,7 +503,7 @@
     </row>
     <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.58399999999999996</v>
@@ -498,10 +519,10 @@
     </row>
     <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
         <v>7.4969999999999999</v>
@@ -531,73 +552,80 @@
     <row r="8" spans="1:8" s="2" customFormat="1" ht="6.75" hidden="1" customHeight="1"/>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>123</v>
+        <v>721</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>411</v>
+        <v>442</v>
+      </c>
+      <c r="F10" s="1">
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="4.5" customHeight="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="4.5" customHeight="1">
+      <c r="B12" s="3">
+        <v>103</v>
+      </c>
+    </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <f>B10*0.0264583333</f>
-        <v>3.2543749959000001</v>
+        <v>19.076458309300001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <f>E10*0.0264583333</f>
-        <v>10.874374986300001</v>
+        <v>11.694583318600001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <f>E10*0.0264583333</f>
-        <v>10.874374986300001</v>
+        <v>11.694583318600001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <f>E15 +38*0.0264583333</f>
-        <v>11.879791651700002</v>
+        <v>12.699999984000002</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -606,11 +634,11 @@
       </c>
       <c r="B17" s="1">
         <f>B11*0.0264583333</f>
-        <v>4.1274999948</v>
+        <v>7.0908333244000001</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E20" si="0">E16 +38*0.0264583333</f>
-        <v>12.885208317100002</v>
+        <v>13.705416649400002</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -619,23 +647,43 @@
       </c>
       <c r="B18" s="1">
         <f>E11*0.0264583333</f>
-        <v>0.68791666579999999</v>
+        <v>1.1112499986</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>13.890624982500002</v>
+        <v>14.710833314800002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>14.896041647900002</v>
+        <v>15.716249980200002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>15.901458313300003</v>
+        <v>16.721666645600003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
